--- a/working/isam-dwc-dp-mappings-workbook.xlsx
+++ b/working/isam-dwc-dp-mappings-workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\isamples\isamples-darwin-core-mappings\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC529BD6-D4D0-4AC1-8869-70F7BD6728CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DFA37-DC72-48D7-A124-8BB38108524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="1944" windowWidth="37032" windowHeight="14160" tabRatio="795" activeTab="5" xr2:uid="{B4317D21-D368-4E0A-8478-3A2BA33D5AC4}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="2326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9740" uniqueCount="2337">
   <si>
     <t>Occurrence</t>
   </si>
@@ -6932,9 +6932,6 @@
     <t xml:space="preserve">The current definition descibes how the field is stored and used within the context of RDF, not </t>
   </si>
   <si>
-    <t>ISAM Datatype</t>
-  </si>
-  <si>
     <t>xsd:anyURI</t>
   </si>
   <si>
@@ -7026,13 +7023,49 @@
   </si>
   <si>
     <t>Maps to the term sampledFeature in the Mineralogy Extension</t>
+  </si>
+  <si>
+    <t>Built into the Event Class</t>
+  </si>
+  <si>
+    <t>EventAgent</t>
+  </si>
+  <si>
+    <t>Built into the Event Class (scope includes both Event and Location)</t>
+  </si>
+  <si>
+    <t>DWC Related Column Definition</t>
+  </si>
+  <si>
+    <t>Top level context, based on the kind of feature sampled. Specific identification of the sampled feature of interest is done through the SamplingEvent/Feature of Interest property. At least one value is an instance of skos:Concept from the iSamples sampledfeaturevocabulary.</t>
+  </si>
+  <si>
+    <t>Relationship doesn't exist in DWC DP. Both SamplingEvent and SamplingLocation are covered under a single table, Event in DWC DP.</t>
+  </si>
+  <si>
+    <t>sampling_location</t>
+  </si>
+  <si>
+    <t>Geopatial location of sample event; required default is WGS84 latitude, longitude in decimal degrees. Elevation as a string with number, unit of measure, and datum.</t>
+  </si>
+  <si>
+    <t>Latitude and Longitude be,long to the Event class in DWC DP and therefore cannot be mapped to the GeospatialCoordLocation relationship in iSamples</t>
+  </si>
+  <si>
+    <t>In DWC DP, Event and Location are within the scope of the Events table. Therefore the self-referential parent identifier satisfies this mapping.</t>
+  </si>
+  <si>
+    <t>The subject of the label is ambiguous and therefore not mapped.</t>
+  </si>
+  <si>
+    <t>Datatype xsd:anyURI makes this mapping conditional upon the format of the value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7053,16 +7086,44 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -7141,12 +7202,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7187,12 +7263,71 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7740,7 +7875,7 @@
         <v>2281</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2230</v>
@@ -7751,7 +7886,7 @@
         <v>2289</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -7764,7 +7899,7 @@
         <v>2281</v>
       </c>
       <c r="C13" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -7772,7 +7907,7 @@
         <v>2289</v>
       </c>
       <c r="C14" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7783,7 +7918,7 @@
         <v>2281</v>
       </c>
       <c r="C15" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7791,7 +7926,7 @@
         <v>2289</v>
       </c>
       <c r="C16" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7802,7 +7937,7 @@
         <v>2281</v>
       </c>
       <c r="C17" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7810,7 +7945,7 @@
         <v>2289</v>
       </c>
       <c r="C18" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7821,7 +7956,7 @@
         <v>2281</v>
       </c>
       <c r="C19" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7829,7 +7964,7 @@
         <v>2289</v>
       </c>
       <c r="C20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -7956,10 +8091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C818BE8E-DD3E-46FC-963A-0F64DCFBC8AC}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7986,7 +8121,7 @@
         <v>2192</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -8030,7 +8165,7 @@
         <v>2276</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -8090,7 +8225,7 @@
         <v>2205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -8105,7 +8240,7 @@
         <v>2207</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -8150,7 +8285,7 @@
         <v>2276</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -8240,7 +8375,7 @@
         <v>2276</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -8418,7 +8553,7 @@
         <v>2217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -8447,7 +8582,7 @@
         <v>2279</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -8462,7 +8597,7 @@
         <v>2276</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -8540,7 +8675,7 @@
         <v>393</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>434</v>
@@ -8608,229 +8743,279 @@
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="17" t="s">
         <v>2252</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="17" t="s">
         <v>2253</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="17" t="s">
         <v>2217</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="17" t="s">
         <v>2220</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="17" t="s">
         <v>2221</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="18" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>2254</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="17" t="s">
         <v>2255</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="D45" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="17" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
         <v>2210</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B55" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>2211</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>2257</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="D55" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>2217</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>2259</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="C57" s="20" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>2211</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>2265</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E56" s="5"/>
+      <c r="C58" s="22" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8841,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E919353-29E5-4B5A-98A8-56166962026F}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10155,8 +10340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1C1C4-188B-45BC-9B09-2E59F3841A1F}">
   <dimension ref="A1:M946"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174:D181"/>
+    <sheetView topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10164,7 +10349,7 @@
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="255.77734375" bestFit="1" customWidth="1"/>
@@ -38193,931 +38378,1662 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A222E4C-874A-428D-A21F-F98E54060B71}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84" style="5" customWidth="1"/>
-    <col min="6" max="6" width="100.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="24.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" style="23" customWidth="1"/>
+    <col min="6" max="6" width="133.88671875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>2272</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>2273</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2294</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="23" t="s">
         <v>2274</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="23" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>2275</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>2276</v>
       </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="25" t="s">
         <v>2198</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="24" t="s">
         <v>2199</v>
       </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="25" t="s">
         <v>2200</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="24" t="s">
         <v>2201</v>
       </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="25" t="s">
         <v>2200</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="24" t="s">
         <v>2201</v>
       </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="25" t="s">
         <v>2200</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="24" t="s">
         <v>2201</v>
       </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="24" t="s">
         <v>2203</v>
       </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="25" t="s">
         <v>853</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="24" t="s">
         <v>2203</v>
       </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="24" t="s">
         <v>2203</v>
       </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="24" t="s">
         <v>2203</v>
       </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="25" t="s">
         <v>2204</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="24" t="s">
         <v>2205</v>
       </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="25" t="s">
         <v>2206</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="24" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="25" t="s">
         <v>2204</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="25" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="25" t="s">
         <v>2206</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="25" t="s">
         <v>890</v>
       </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="25" t="s">
         <v>2208</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="24" t="s">
         <v>2209</v>
       </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="25" t="s">
         <v>2215</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="25" t="s">
         <v>1170</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="25" t="s">
         <v>1171</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="24" t="s">
         <v>2216</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="25" t="s">
         <v>2218</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="25" t="s">
         <v>1136</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="25" t="s">
         <v>1137</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="24" t="s">
         <v>2219</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="25" t="s">
         <v>2222</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="24" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="24" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="25" t="s">
         <v>1146</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="25" t="s">
         <v>1147</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="24" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="25" t="s">
         <v>1161</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="25" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="25" t="s">
         <v>2220</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="25" t="s">
         <v>1186</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="25" t="s">
         <v>1187</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="24" t="s">
         <v>2221</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>2210</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="25" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="D24" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>2211</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>2275</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C51" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="F51" s="24" t="s">
         <v>2276</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>2318</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D52" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>458</v>
-      </c>
-      <c r="E36" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>440</v>
-      </c>
-      <c r="E37" t="s">
-        <v>441</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D53" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>704</v>
-      </c>
-      <c r="E38" t="s">
-        <v>705</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D54" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>709</v>
-      </c>
-      <c r="E39" t="s">
-        <v>710</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D55" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>714</v>
-      </c>
-      <c r="E40" t="s">
-        <v>715</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D56" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>718</v>
-      </c>
-      <c r="E41" t="s">
-        <v>719</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D57" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>721</v>
-      </c>
-      <c r="E42" t="s">
-        <v>722</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D58" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>725</v>
-      </c>
-      <c r="E43" t="s">
-        <v>726</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D59" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>729</v>
-      </c>
-      <c r="E44" t="s">
-        <v>730</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D60" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>733</v>
-      </c>
-      <c r="E45" t="s">
-        <v>734</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>2261</v>
-      </c>
+      <c r="D61" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:H74">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -39125,11 +40041,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E845AC2-1E1B-4CC7-862F-55EFE41AE5AE}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39158,7 +40074,7 @@
         <v>2268</v>
       </c>
       <c r="F1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -39337,52 +40253,52 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -39390,79 +40306,121 @@
       <c r="D17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" t="s">
-        <v>212</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51BD3AB-8E76-4449-B607-C8689B61A08F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2310</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2311</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2312</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2313</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>393</v>
       </c>
@@ -39476,10 +40434,10 @@
         <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>393</v>
       </c>
@@ -39496,7 +40454,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>393</v>
       </c>
@@ -39516,7 +40474,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>392</v>
       </c>
@@ -39530,10 +40488,10 @@
         <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>393</v>
       </c>
@@ -39547,7 +40505,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>393</v>
       </c>
@@ -39560,8 +40518,14 @@
       <c r="D7" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>393</v>
       </c>
@@ -39574,8 +40538,14 @@
       <c r="D8" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>393</v>
       </c>
@@ -39586,7 +40556,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -39599,8 +40569,17 @@
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -39613,8 +40592,14 @@
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -39627,8 +40612,11 @@
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -39641,8 +40629,11 @@
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>395</v>
       </c>
@@ -39650,10 +40641,13 @@
         <v>390</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2327</v>
       </c>
     </row>
   </sheetData>
@@ -39663,160 +40657,162 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A96C0B-B7C0-400F-858D-731BD90F555B}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="80.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="106.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="93.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="56.21875" style="4" customWidth="1"/>
     <col min="6" max="16384" width="80.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="33" t="s">
         <v>2272</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="31" t="s">
         <v>2193</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="32" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="25" t="s">
         <v>2195</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="24" t="s">
         <v>2285</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="25" t="s">
         <v>2220</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="24" t="s">
         <v>2221</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="24" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="25" t="s">
         <v>2275</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="24" t="s">
         <v>2276</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="25" t="s">
         <v>2210</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="24" t="s">
         <v>2211</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="25" t="s">
         <v>2220</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>2221</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="25" t="s">
         <v>2226</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="24" t="s">
         <v>2227</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="25" t="s">
         <v>2230</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="24" t="s">
         <v>2231</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="24" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="24" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2296</v>
+      <c r="D11" s="24" t="s">
+        <v>2295</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -39824,76 +40820,124 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="25" t="s">
         <v>2248</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2322</v>
+      <c r="C12" s="24" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2321</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="25" t="s">
         <v>2210</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="24" t="s">
         <v>2211</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>2252</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="24" t="s">
         <v>2253</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="24" t="s">
         <v>2217</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>2254</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="24" t="s">
         <v>2255</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>2325</v>
+      <c r="D15" s="24" t="s">
+        <v>2324</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>2210</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="24" t="s">
         <v>2211</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="5"/>
     </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2335</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/working/isam-dwc-dp-mappings-workbook.xlsx
+++ b/working/isam-dwc-dp-mappings-workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\isamples\isamples-darwin-core-mappings\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DFA37-DC72-48D7-A124-8BB38108524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D810D0-2710-4277-966E-72453DCA22D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1944" windowWidth="37032" windowHeight="14160" tabRatio="795" activeTab="5" xr2:uid="{B4317D21-D368-4E0A-8478-3A2BA33D5AC4}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12120" tabRatio="795" activeTab="5" xr2:uid="{B4317D21-D368-4E0A-8478-3A2BA33D5AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -7222,7 +7222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7280,28 +7280,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8441,7 +8425,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>2228</v>
       </c>
@@ -8458,7 +8442,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>2230</v>
       </c>
@@ -8488,7 +8472,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>2232</v>
       </c>
@@ -8505,7 +8489,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>2234</v>
       </c>
@@ -8539,7 +8523,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>2238</v>
       </c>
@@ -8727,7 +8711,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>2250</v>
       </c>
@@ -38380,1653 +38364,1653 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A222E4C-874A-428D-A21F-F98E54060B71}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84" style="23" customWidth="1"/>
-    <col min="6" max="6" width="133.88671875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="121.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" style="3" customWidth="1"/>
+    <col min="6" max="6" width="133.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="3" t="s">
         <v>2272</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="3" t="s">
         <v>2273</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="3" t="s">
         <v>2274</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="3" t="s">
         <v>2268</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>2275</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="6" t="s">
         <v>2276</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>2198</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="7" t="s">
         <v>2199</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>2200</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>2200</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>2200</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>2202</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="7" t="s">
         <v>2203</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>2202</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="7" t="s">
         <v>2203</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>2202</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="7" t="s">
         <v>2203</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>2202</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="7" t="s">
         <v>2203</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>2204</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="7" t="s">
         <v>2205</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>2206</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="7" t="s">
         <v>2207</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>2204</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>884</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>2206</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>2208</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>953</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="7" t="s">
         <v>2209</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>2215</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>1170</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>1171</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="7" t="s">
         <v>2216</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>2218</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>1136</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>1137</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="7" t="s">
         <v>2219</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>2222</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="7" t="s">
         <v>2223</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>2224</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="7" t="s">
         <v>2225</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>2224</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>1146</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>1147</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="7" t="s">
         <v>2225</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>2224</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>1161</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>1162</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>1186</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>1187</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>2210</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>1174</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>1175</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="7" t="s">
         <v>2211</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>2275</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="7" t="s">
         <v>2276</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>2232</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>1130</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="7" t="s">
         <v>2233</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>2234</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>1134</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="7" t="s">
         <v>2235</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>2246</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>2317</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>2246</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>152</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>2247</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>1975</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>1976</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>2210</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>1949</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>1950</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="7" t="s">
         <v>2211</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>1949</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="23" t="s">
         <v>1950</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>2250</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>1956</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>1957</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="7" t="s">
         <v>2251</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="7" t="s">
         <v>2197</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>2256</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>1267</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>1268</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="7" t="s">
         <v>2257</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>2222</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="7" t="s">
         <v>2223</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="7" t="s">
         <v>2259</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>2232</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="7" t="s">
         <v>2329</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>2232</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="7" t="s">
         <v>2329</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>2275</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="7" t="s">
         <v>2276</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>2275</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="7" t="s">
         <v>2276</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>2262</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="7" t="s">
         <v>2263</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23" t="s">
         <v>2334</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25" t="s">
+      <c r="G55" s="23"/>
+      <c r="H55" s="23" t="s">
         <v>2336</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25" t="s">
+      <c r="G56" s="23"/>
+      <c r="H56" s="23" t="s">
         <v>2336</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="23" t="s">
         <v>1003</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="23" t="s">
         <v>1006</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="23" t="s">
         <v>1010</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="23" t="s">
         <v>1014</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="23" t="s">
         <v>1022</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="23" t="s">
         <v>1023</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="23" t="s">
         <v>1026</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="23" t="s">
         <v>1027</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="23" t="s">
         <v>2003</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="23" t="s">
         <v>2004</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="7" t="s">
         <v>2265</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="25" t="s">
         <v>2264</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="25" t="s">
         <v>2008</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="25" t="s">
         <v>2009</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="9" t="s">
         <v>2265</v>
       </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H74">
@@ -40339,7 +40323,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B20" t="s">
@@ -40353,7 +40337,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B21" t="s">
@@ -40674,144 +40658,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>2272</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>2268</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>2193</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="10" t="s">
         <v>2194</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>2195</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="7" t="s">
         <v>2285</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="7" t="s">
         <v>2284</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>2275</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="7" t="s">
         <v>2276</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>2210</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="7" t="s">
         <v>2211</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>2220</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>2226</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="7" t="s">
         <v>2227</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>2230</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="7" t="s">
         <v>2231</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="7" t="s">
         <v>2301</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>2238</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="7" t="s">
         <v>2239</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="7" t="s">
         <v>2302</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>2278</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="7" t="s">
         <v>2303</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="7" t="s">
         <v>2295</v>
       </c>
       <c r="E11" s="4"/>
@@ -40820,112 +40804,112 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>2248</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="7" t="s">
         <v>2318</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="7" t="s">
         <v>2321</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>2210</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="7" t="s">
         <v>2211</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>2252</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="7" t="s">
         <v>2253</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="7" t="s">
         <v>2217</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>2254</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="7" t="s">
         <v>2255</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="7" t="s">
         <v>2324</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>2210</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="7" t="s">
         <v>2211</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>2260</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="7" t="s">
         <v>2261</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="7" t="s">
         <v>2330</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>2266</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="9" t="s">
         <v>2267</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="9" t="s">
         <v>2333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="3" t="s">
         <v>2210</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="3" t="s">
         <v>2211</v>
       </c>
       <c r="D19" s="4" t="s">
